--- a/StructureDefinition-Immunization.xlsx
+++ b/StructureDefinition-Immunization.xlsx
@@ -330,7 +330,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Medicinal Immunizing Product </t>
+    <t>Medicinal Immunizing Product</t>
   </si>
   <si>
     <t>A manufactured product that is a representation of a brand specific Immunizing Agent authorized for use in a jurisdiction.  
@@ -350,7 +350,7 @@
     <t>Date of Immunization Administration</t>
   </si>
   <si>
-    <t xml:space="preserve">The date the Medicinal Immunizing Product was administered to the person. </t>
+    <t>The date the Medicinal Immunizing Product was administered to the person.</t>
   </si>
   <si>
     <t>Immunization.administration.date.value</t>
@@ -384,7 +384,7 @@
     <t>Quantity administered</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity of the dose administered; (e.g., influenza dose is 0.25 or 0.5).  </t>
+    <t>Quantity of the dose administered; (e.g., influenza dose is 0.25 or 0.5).</t>
   </si>
   <si>
     <t>Immunization.doseQuantity</t>
@@ -409,8 +409,8 @@
     <t>Immunization Anatomical Site</t>
   </si>
   <si>
-    <t xml:space="preserve">The body location to or through which a Medicinal Immunizing Product was administered.
-It is important to record where the Medicinal Immunizing Product was delivered to the body in the event of a reported local reaction to a vaccine.  When multiple agents are administered to multiple sites on the body, anatomical site helps determine which vaccine may have been responsible.  </t>
+    <t>The body location to or through which a Medicinal Immunizing Product was administered.
+It is important to record where the Medicinal Immunizing Product was delivered to the body in the event of a reported local reaction to a vaccine.  When multiple agents are administered to multiple sites on the body, anatomical site helps determine which vaccine may have been responsible.</t>
   </si>
   <si>
     <t>Immunization.site</t>
@@ -439,7 +439,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Organization responsible for Immunization Administration </t>
+    <t>Organization responsible for Immunization Administration</t>
   </si>
   <si>
     <t>The health authority responsible for the immunization event.</t>
@@ -455,7 +455,7 @@
     <t>Location of Immunization Administration</t>
   </si>
   <si>
-    <t xml:space="preserve">The location where the immunization occurred is a further specification of the Organization responsible for Immunization Administration.  </t>
+    <t>The location where the immunization occurred is a further specification of the Organization responsible for Immunization Administration.</t>
   </si>
   <si>
     <t>Immunization.location</t>
@@ -565,7 +565,7 @@
     <t>Additional information relevant to the immunization record.</t>
   </si>
   <si>
-    <t xml:space="preserve">The note is specific to the immunization event, agent or antigen. </t>
+    <t>The note is specific to the immunization event, agent or antigen.</t>
   </si>
   <si>
     <t>Immunization.note</t>

--- a/StructureDefinition-Immunization.xlsx
+++ b/StructureDefinition-Immunization.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="155">
   <si>
     <t>Path</t>
   </si>
@@ -264,9 +264,6 @@
     <t>Indicates the reason the immunization event was not performed.</t>
   </si>
   <si>
-    <t>Immunization.statusReason</t>
-  </si>
-  <si>
     <t>Immunization.indication</t>
   </si>
   <si>
@@ -274,9 +271,6 @@
   </si>
   <si>
     <t>Indicates the reason the immunization event was performed.</t>
-  </si>
-  <si>
-    <t>Immunization.reasonCode</t>
   </si>
   <si>
     <t>Immunization.targetDisease</t>
@@ -290,9 +284,6 @@
 The disease can be derived or inferred from the Immunizing Agent and/or Medicinal Immunizing Product, therefore optional</t>
   </si>
   <si>
-    <t>Immunization.protocolApplied.targetDisease</t>
-  </si>
-  <si>
     <t>Immunization.vaccineType</t>
   </si>
   <si>
@@ -304,23 +295,17 @@
 This data element is required when the trade name is not known (such as a recording of an immunizing event that took place in the past) Because the Immunizing Agent can be derived from Medicinal Immunizing Product it is optional IF the Administrable Immunizing Agent is provided.</t>
   </si>
   <si>
-    <t>Immunization.vaccineCode</t>
-  </si>
-  <si>
     <t>Immunization.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">http://iso.org/fhir/ts-5384/StructureDefinition/Subject
-</t>
+    <t>http://iso.org/fhir/ts-5384/StructureDefinition/Subject
+http://iso.org/fhir/ts-5384/StructureDefinition/Subject-uc1</t>
   </si>
   <si>
     <t>Subject</t>
   </si>
   <si>
     <t>Person that have or should have been vaccinated</t>
-  </si>
-  <si>
-    <t>Immunization.patient</t>
   </si>
   <si>
     <t>Immunization.product</t>
@@ -361,9 +346,6 @@
 Jurisdictions may have different business rules for dealing with partial or estimated dates when complete dates are not known.</t>
   </si>
   <si>
-    <t>Immunization.occurrenceDateTime</t>
-  </si>
-  <si>
     <t>Immunization.administration.date.estimated</t>
   </si>
   <si>
@@ -387,9 +369,6 @@
     <t>Quantity of the dose administered; (e.g., influenza dose is 0.25 or 0.5).</t>
   </si>
   <si>
-    <t>Immunization.doseQuantity</t>
-  </si>
-  <si>
     <t>Immunization.administration.routeOfAdministration</t>
   </si>
   <si>
@@ -400,9 +379,6 @@
 Assists with management reporting such as adverse event management (e.g., was the correct route of administration used).  (intramuscular injection, subcutaneous injection, oral, etc.).</t>
   </si>
   <si>
-    <t>Immunization.route</t>
-  </si>
-  <si>
     <t>Immunization.administration.site</t>
   </si>
   <si>
@@ -413,9 +389,6 @@
 It is important to record where the Medicinal Immunizing Product was delivered to the body in the event of a reported local reaction to a vaccine.  When multiple agents are administered to multiple sites on the body, anatomical site helps determine which vaccine may have been responsible.</t>
   </si>
   <si>
-    <t>Immunization.site</t>
-  </si>
-  <si>
     <t>Immunization.administration.performer</t>
   </si>
   <si>
@@ -429,9 +402,6 @@
     <t>The person who is medically responsible for the decision to administer an immunization product.</t>
   </si>
   <si>
-    <t>Immunization.performer</t>
-  </si>
-  <si>
     <t>Immunization.administration.administrationCenter</t>
   </si>
   <si>
@@ -458,9 +428,6 @@
     <t>The location where the immunization occurred is a further specification of the Organization responsible for Immunization Administration.</t>
   </si>
   <si>
-    <t>Immunization.location</t>
-  </si>
-  <si>
     <t>Immunization.administration.country</t>
   </si>
   <si>
@@ -470,9 +437,6 @@
     <t>The country in which the individual has been immunized person.</t>
   </si>
   <si>
-    <t>Location.address.country</t>
-  </si>
-  <si>
     <t>Immunization.protocol</t>
   </si>
   <si>
@@ -482,25 +446,16 @@
     <t>The protocol (set of recommendations) being followed by the provider who administered the dose.</t>
   </si>
   <si>
-    <t>Immunization.protocolApplied</t>
-  </si>
-  <si>
     <t>Immunization.protocol.doseNumber</t>
   </si>
   <si>
     <t>Dose Number</t>
   </si>
   <si>
-    <t>Immunization.protocolApplied.doseNumber[x]</t>
-  </si>
-  <si>
     <t>Immunization.protocol.seriesDoseNumber</t>
   </si>
   <si>
     <t>Series Dose Number</t>
-  </si>
-  <si>
-    <t>Immunization.protocolApplied.seriesDoses[x]</t>
   </si>
   <si>
     <t>Immunization.reaction</t>
@@ -539,9 +494,6 @@
 Example: Rash, Hives</t>
   </si>
   <si>
-    <t>Immunization.reaction.detail</t>
-  </si>
-  <si>
     <t>Immunization.forecast</t>
   </si>
   <si>
@@ -552,9 +504,6 @@
     <t>Subject's immunization forecast</t>
   </si>
   <si>
-    <t>ImmunizationRecommendation</t>
-  </si>
-  <si>
     <t>Immunization.notes</t>
   </si>
   <si>
@@ -566,9 +515,6 @@
   </si>
   <si>
     <t>The note is specific to the immunization event, agent or antigen.</t>
-  </si>
-  <si>
-    <t>Immunization.note</t>
   </si>
 </sst>
 </file>
@@ -761,7 +707,7 @@
     <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="43.41015625" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="16.37109375" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="24.9765625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -1286,7 +1232,7 @@
         <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>38</v>
@@ -1492,7 +1438,7 @@
         <v>38</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>38</v>
@@ -1595,7 +1541,7 @@
         <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>38</v>
@@ -1603,7 +1549,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1629,10 +1575,10 @@
         <v>75</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>80</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1683,7 +1629,7 @@
         <v>38</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>41</v>
@@ -1698,7 +1644,7 @@
         <v>38</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>38</v>
@@ -1706,7 +1652,7 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1732,10 +1678,10 @@
         <v>75</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1786,7 +1732,7 @@
         <v>38</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>41</v>
@@ -1801,7 +1747,7 @@
         <v>38</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>38</v>
@@ -1809,7 +1755,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1835,10 +1781,10 @@
         <v>75</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1889,7 +1835,7 @@
         <v>38</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>41</v>
@@ -1904,7 +1850,7 @@
         <v>38</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>38</v>
@@ -1912,7 +1858,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1935,13 +1881,13 @@
         <v>38</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1992,7 +1938,7 @@
         <v>38</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>41</v>
@@ -2007,7 +1953,7 @@
         <v>38</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>38</v>
@@ -2015,7 +1961,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2038,13 +1984,13 @@
         <v>38</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2095,7 +2041,7 @@
         <v>38</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>41</v>
@@ -2110,7 +2056,7 @@
         <v>38</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>38</v>
@@ -2118,7 +2064,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2144,10 +2090,10 @@
         <v>67</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2198,7 +2144,7 @@
         <v>38</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>41</v>
@@ -2213,7 +2159,7 @@
         <v>38</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>38</v>
@@ -2221,7 +2167,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2247,10 +2193,10 @@
         <v>67</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2301,7 +2247,7 @@
         <v>38</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>41</v>
@@ -2324,7 +2270,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2350,10 +2296,10 @@
         <v>63</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2404,7 +2350,7 @@
         <v>38</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>41</v>
@@ -2419,7 +2365,7 @@
         <v>38</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>38</v>
@@ -2427,7 +2373,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2453,10 +2399,10 @@
         <v>67</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2507,7 +2453,7 @@
         <v>38</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>41</v>
@@ -2530,7 +2476,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2553,13 +2499,13 @@
         <v>38</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2610,7 +2556,7 @@
         <v>38</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>41</v>
@@ -2625,7 +2571,7 @@
         <v>38</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>115</v>
+        <v>38</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>38</v>
@@ -2633,7 +2579,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2659,10 +2605,10 @@
         <v>75</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2713,7 +2659,7 @@
         <v>38</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
@@ -2728,7 +2674,7 @@
         <v>38</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>38</v>
@@ -2736,7 +2682,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2762,10 +2708,10 @@
         <v>75</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2816,7 +2762,7 @@
         <v>38</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -2831,7 +2777,7 @@
         <v>38</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>123</v>
+        <v>38</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>38</v>
@@ -2839,7 +2785,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -2862,13 +2808,13 @@
         <v>38</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -2919,7 +2865,7 @@
         <v>38</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
@@ -2934,7 +2880,7 @@
         <v>38</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>128</v>
+        <v>38</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>38</v>
@@ -2942,7 +2888,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -2965,13 +2911,13 @@
         <v>38</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3022,7 +2968,7 @@
         <v>38</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
@@ -3037,7 +2983,7 @@
         <v>38</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>128</v>
+        <v>38</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>38</v>
@@ -3045,7 +2991,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3068,13 +3014,13 @@
         <v>38</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3125,7 +3071,7 @@
         <v>38</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -3140,7 +3086,7 @@
         <v>38</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>137</v>
+        <v>38</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>38</v>
@@ -3148,7 +3094,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3174,10 +3120,10 @@
         <v>75</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3228,7 +3174,7 @@
         <v>38</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -3243,7 +3189,7 @@
         <v>38</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>141</v>
+        <v>38</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>38</v>
@@ -3251,7 +3197,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3277,10 +3223,10 @@
         <v>67</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3331,7 +3277,7 @@
         <v>38</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -3346,7 +3292,7 @@
         <v>38</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>145</v>
+        <v>38</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>38</v>
@@ -3354,7 +3300,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3380,10 +3326,10 @@
         <v>67</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3434,7 +3380,7 @@
         <v>38</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -3449,7 +3395,7 @@
         <v>38</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>148</v>
+        <v>38</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>38</v>
@@ -3457,7 +3403,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3483,10 +3429,10 @@
         <v>67</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3537,7 +3483,7 @@
         <v>38</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -3552,7 +3498,7 @@
         <v>38</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>151</v>
+        <v>38</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>38</v>
@@ -3560,7 +3506,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3586,10 +3532,10 @@
         <v>67</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -3640,7 +3586,7 @@
         <v>38</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -3655,7 +3601,7 @@
         <v>38</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>152</v>
+        <v>38</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>38</v>
@@ -3663,7 +3609,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -3689,10 +3635,10 @@
         <v>71</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -3743,7 +3689,7 @@
         <v>38</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -3758,7 +3704,7 @@
         <v>38</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>154</v>
+        <v>38</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>38</v>
@@ -3766,7 +3712,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -3792,10 +3738,10 @@
         <v>63</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -3846,7 +3792,7 @@
         <v>38</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -3861,7 +3807,7 @@
         <v>38</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>157</v>
+        <v>38</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>38</v>
@@ -3869,7 +3815,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -3895,10 +3841,10 @@
         <v>67</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -3949,7 +3895,7 @@
         <v>38</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -3964,7 +3910,7 @@
         <v>38</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>163</v>
+        <v>38</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>38</v>
@@ -3972,7 +3918,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -3995,13 +3941,13 @@
         <v>38</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4052,7 +3998,7 @@
         <v>38</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -4067,7 +4013,7 @@
         <v>38</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>167</v>
+        <v>38</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>38</v>
@@ -4075,7 +4021,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4098,13 +4044,13 @@
         <v>38</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4155,7 +4101,7 @@
         <v>38</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -4170,7 +4116,7 @@
         <v>38</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>172</v>
+        <v>38</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>38</v>

--- a/StructureDefinition-Immunization.xlsx
+++ b/StructureDefinition-Immunization.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="156">
   <si>
     <t>Path</t>
   </si>
@@ -447,6 +447,10 @@
   </si>
   <si>
     <t>Immunization.protocol.doseNumber</t>
+  </si>
+  <si>
+    <t>integer
+string</t>
   </si>
   <si>
     <t>Dose Number</t>
@@ -3323,13 +3327,13 @@
         <v>38</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>67</v>
+        <v>134</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3403,7 +3407,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3426,13 +3430,13 @@
         <v>38</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>67</v>
+        <v>134</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3483,7 +3487,7 @@
         <v>38</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -3506,7 +3510,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3532,10 +3536,10 @@
         <v>67</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -3586,7 +3590,7 @@
         <v>38</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -3609,7 +3613,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -3635,10 +3639,10 @@
         <v>71</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -3689,7 +3693,7 @@
         <v>38</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -3712,7 +3716,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -3738,10 +3742,10 @@
         <v>63</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -3792,7 +3796,7 @@
         <v>38</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -3815,7 +3819,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -3841,10 +3845,10 @@
         <v>67</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -3895,7 +3899,7 @@
         <v>38</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -3918,7 +3922,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -3941,13 +3945,13 @@
         <v>38</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -3998,7 +4002,7 @@
         <v>38</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -4021,7 +4025,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4044,13 +4048,13 @@
         <v>38</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4101,7 +4105,7 @@
         <v>38</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>

--- a/StructureDefinition-Immunization.xlsx
+++ b/StructureDefinition-Immunization.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="174">
   <si>
     <t>Path</t>
   </si>
@@ -240,7 +240,7 @@
     <t>Immunization.status</t>
   </si>
   <si>
-    <t xml:space="preserve">boolean
+    <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
@@ -254,23 +254,25 @@
     <t>Immunization.reasonNotGiven</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Reason not done [ADDED]</t>
+    <t>Reason not done</t>
   </si>
   <si>
     <t>Indicates the reason the immunization event was not performed.</t>
   </si>
   <si>
+    <t>Immunization.statusReason</t>
+  </si>
+  <si>
     <t>Immunization.indication</t>
   </si>
   <si>
-    <t>Why immunization occurred [ADDED]</t>
+    <t>Why immunization occurred</t>
   </si>
   <si>
     <t>Indicates the reason the immunization event was performed.</t>
+  </si>
+  <si>
+    <t>Immunization.reasonCode</t>
   </si>
   <si>
     <t>Immunization.targetDisease</t>
@@ -284,10 +286,13 @@
 The disease can be derived or inferred from the Immunizing Agent and/or Medicinal Immunizing Product, therefore optional</t>
   </si>
   <si>
-    <t>Immunization.vaccineType</t>
-  </si>
-  <si>
-    <t>Vaccine type (prophylaxis, generic immunizing Agent)</t>
+    <t>Immunization.protocolApplied.targetDisease</t>
+  </si>
+  <si>
+    <t>Immunization.immunizingAgent</t>
+  </si>
+  <si>
+    <t>Generic immunizing Agent (Vaccine type, prophylaxis)</t>
   </si>
   <si>
     <t>Generic representation of the formulation administered to a subject that includes one or more specific antigen(s) aimed at developing an immune response in an individual to provide protection from a vaccine preventable disease(s). 
@@ -295,6 +300,9 @@
 This data element is required when the trade name is not known (such as a recording of an immunizing event that took place in the past) Because the Immunizing Agent can be derived from Medicinal Immunizing Product it is optional IF the Administrable Immunizing Agent is provided.</t>
   </si>
   <si>
+    <t>Immunization.vaccineCode</t>
+  </si>
+  <si>
     <t>Immunization.subject</t>
   </si>
   <si>
@@ -308,11 +316,14 @@
     <t>Person that have or should have been vaccinated</t>
   </si>
   <si>
+    <t>Immunization.patient</t>
+  </si>
+  <si>
     <t>Immunization.product</t>
   </si>
   <si>
-    <t xml:space="preserve">http://iso.org/fhir/ts-5384/StructureDefinition/Product
-</t>
+    <t>http://iso.org/fhir/ts-5384/StructureDefinition/Product
+http://iso.org/fhir/ts-5384/StructureDefinition/Product-uc1</t>
   </si>
   <si>
     <t>Medicinal Immunizing Product</t>
@@ -346,6 +357,9 @@
 Jurisdictions may have different business rules for dealing with partial or estimated dates when complete dates are not known.</t>
   </si>
   <si>
+    <t>Immunization.occurrenceDateTime</t>
+  </si>
+  <si>
     <t>Immunization.administration.date.estimated</t>
   </si>
   <si>
@@ -369,6 +383,9 @@
     <t>Quantity of the dose administered; (e.g., influenza dose is 0.25 or 0.5).</t>
   </si>
   <si>
+    <t>Immunization.doseQuantity</t>
+  </si>
+  <si>
     <t>Immunization.administration.routeOfAdministration</t>
   </si>
   <si>
@@ -379,6 +396,9 @@
 Assists with management reporting such as adverse event management (e.g., was the correct route of administration used).  (intramuscular injection, subcutaneous injection, oral, etc.).</t>
   </si>
   <si>
+    <t>Immunization.route</t>
+  </si>
+  <si>
     <t>Immunization.administration.site</t>
   </si>
   <si>
@@ -389,6 +409,9 @@
 It is important to record where the Medicinal Immunizing Product was delivered to the body in the event of a reported local reaction to a vaccine.  When multiple agents are administered to multiple sites on the body, anatomical site helps determine which vaccine may have been responsible.</t>
   </si>
   <si>
+    <t>Immunization.site</t>
+  </si>
+  <si>
     <t>Immunization.administration.performer</t>
   </si>
   <si>
@@ -402,6 +425,9 @@
     <t>The person who is medically responsible for the decision to administer an immunization product.</t>
   </si>
   <si>
+    <t>Immunization.performer</t>
+  </si>
+  <si>
     <t>Immunization.administration.administrationCenter</t>
   </si>
   <si>
@@ -428,6 +454,9 @@
     <t>The location where the immunization occurred is a further specification of the Organization responsible for Immunization Administration.</t>
   </si>
   <si>
+    <t>Immunization.location</t>
+  </si>
+  <si>
     <t>Immunization.administration.country</t>
   </si>
   <si>
@@ -437,6 +466,9 @@
     <t>The country in which the individual has been immunized person.</t>
   </si>
   <si>
+    <t>Location.address.country</t>
+  </si>
+  <si>
     <t>Immunization.protocol</t>
   </si>
   <si>
@@ -446,22 +478,31 @@
     <t>The protocol (set of recommendations) being followed by the provider who administered the dose.</t>
   </si>
   <si>
+    <t>Immunization.protocolApplied</t>
+  </si>
+  <si>
     <t>Immunization.protocol.doseNumber</t>
   </si>
   <si>
-    <t>integer
-string</t>
+    <t xml:space="preserve">integer
+</t>
   </si>
   <si>
     <t>Dose Number</t>
   </si>
   <si>
+    <t>Immunization.protocolApplied.doseNumber[x]</t>
+  </si>
+  <si>
     <t>Immunization.protocol.seriesDoseNumber</t>
   </si>
   <si>
     <t>Series Dose Number</t>
   </si>
   <si>
+    <t>Immunization.protocolApplied.seriesDoses[x]</t>
+  </si>
+  <si>
     <t>Immunization.reaction</t>
   </si>
   <si>
@@ -469,6 +510,10 @@
   </si>
   <si>
     <t>Immunization.reaction.reported</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
   </si>
   <si>
     <t>Adverse Reaction Following Immunization</t>
@@ -498,14 +543,20 @@
 Example: Rash, Hives</t>
   </si>
   <si>
+    <t>Immunization.reaction.detail</t>
+  </si>
+  <si>
     <t>Immunization.forecast</t>
   </si>
   <si>
-    <t xml:space="preserve">http://iso.org/fhir/ts-5384/StructureDefinition/Forecast
-</t>
+    <t>http://iso.org/fhir/ts-5384/StructureDefinition/Forecast
+http://iso.org/fhir/ts-5384/StructureDefinition/Forecast-uc1</t>
   </si>
   <si>
     <t>Subject's immunization forecast</t>
+  </si>
+  <si>
+    <t>ImmunizationRecommendation</t>
   </si>
   <si>
     <t>Immunization.notes</t>
@@ -519,6 +570,9 @@
   </si>
   <si>
     <t>The note is specific to the immunization event, agent or antigen.</t>
+  </si>
+  <si>
+    <t>Immunization.note</t>
   </si>
 </sst>
 </file>
@@ -711,7 +765,7 @@
     <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="16.37109375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="43.41015625" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="24.9765625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -1236,7 +1290,7 @@
         <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>38</v>
@@ -1358,7 +1412,7 @@
         <v>41</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>38</v>
@@ -1433,7 +1487,7 @@
         <v>41</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>38</v>
@@ -1442,7 +1496,7 @@
         <v>38</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>38</v>
@@ -1473,13 +1527,13 @@
         <v>38</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>76</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1545,7 +1599,7 @@
         <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>38</v>
@@ -1576,7 +1630,7 @@
         <v>38</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K9" t="s" s="2">
         <v>79</v>
@@ -1648,7 +1702,7 @@
         <v>38</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>38</v>
@@ -1656,7 +1710,7 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1679,13 +1733,13 @@
         <v>38</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1736,7 +1790,7 @@
         <v>38</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>41</v>
@@ -1751,7 +1805,7 @@
         <v>38</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>38</v>
@@ -1759,7 +1813,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1782,13 +1836,13 @@
         <v>38</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1839,7 +1893,7 @@
         <v>38</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>41</v>
@@ -1854,7 +1908,7 @@
         <v>38</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>38</v>
@@ -1862,7 +1916,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1885,13 +1939,13 @@
         <v>38</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1942,7 +1996,7 @@
         <v>38</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>41</v>
@@ -1957,7 +2011,7 @@
         <v>38</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>38</v>
@@ -1965,7 +2019,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -1988,13 +2042,13 @@
         <v>38</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2045,7 +2099,7 @@
         <v>38</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>41</v>
@@ -2060,7 +2114,7 @@
         <v>38</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>38</v>
@@ -2068,7 +2122,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2094,10 +2148,10 @@
         <v>67</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2148,7 +2202,7 @@
         <v>38</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>41</v>
@@ -2163,7 +2217,7 @@
         <v>38</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>38</v>
@@ -2171,7 +2225,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2197,10 +2251,10 @@
         <v>67</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2251,7 +2305,7 @@
         <v>38</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>41</v>
@@ -2274,7 +2328,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2300,10 +2354,10 @@
         <v>63</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2354,7 +2408,7 @@
         <v>38</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>41</v>
@@ -2369,7 +2423,7 @@
         <v>38</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>38</v>
@@ -2377,7 +2431,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2403,10 +2457,10 @@
         <v>67</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2457,7 +2511,7 @@
         <v>38</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>41</v>
@@ -2480,7 +2534,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2503,13 +2557,13 @@
         <v>38</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2560,7 +2614,7 @@
         <v>38</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>41</v>
@@ -2575,7 +2629,7 @@
         <v>38</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>38</v>
@@ -2583,7 +2637,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2606,13 +2660,13 @@
         <v>38</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2663,7 +2717,7 @@
         <v>38</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
@@ -2678,7 +2732,7 @@
         <v>38</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>38</v>
+        <v>118</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>38</v>
@@ -2686,7 +2740,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2709,13 +2763,13 @@
         <v>38</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2766,7 +2820,7 @@
         <v>38</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -2781,7 +2835,7 @@
         <v>38</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>38</v>
+        <v>122</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>38</v>
@@ -2789,7 +2843,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -2812,13 +2866,13 @@
         <v>38</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -2869,7 +2923,7 @@
         <v>38</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
@@ -2884,7 +2938,7 @@
         <v>38</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>38</v>
+        <v>127</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>38</v>
@@ -2892,7 +2946,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -2915,13 +2969,13 @@
         <v>38</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -2972,7 +3026,7 @@
         <v>38</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
@@ -2987,7 +3041,7 @@
         <v>38</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>38</v>
+        <v>127</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>38</v>
@@ -2995,7 +3049,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3018,13 +3072,13 @@
         <v>38</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3075,7 +3129,7 @@
         <v>38</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -3090,7 +3144,7 @@
         <v>38</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>38</v>
+        <v>136</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>38</v>
@@ -3098,7 +3152,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3121,13 +3175,13 @@
         <v>38</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3178,7 +3232,7 @@
         <v>38</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -3193,7 +3247,7 @@
         <v>38</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>38</v>
+        <v>140</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>38</v>
@@ -3201,7 +3255,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3227,10 +3281,10 @@
         <v>67</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3281,7 +3335,7 @@
         <v>38</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -3296,7 +3350,7 @@
         <v>38</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>38</v>
+        <v>144</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>38</v>
@@ -3304,7 +3358,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3327,13 +3381,13 @@
         <v>38</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3384,7 +3438,7 @@
         <v>38</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -3399,7 +3453,7 @@
         <v>38</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>38</v>
+        <v>148</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>38</v>
@@ -3407,7 +3461,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3430,13 +3484,13 @@
         <v>38</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3487,7 +3541,7 @@
         <v>38</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -3502,7 +3556,7 @@
         <v>38</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>38</v>
+        <v>151</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>38</v>
@@ -3510,7 +3564,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3536,10 +3590,10 @@
         <v>67</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -3590,7 +3644,7 @@
         <v>38</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -3605,7 +3659,7 @@
         <v>38</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>38</v>
@@ -3613,7 +3667,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -3636,13 +3690,13 @@
         <v>38</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>71</v>
+        <v>155</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -3693,7 +3747,7 @@
         <v>38</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -3708,7 +3762,7 @@
         <v>38</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>38</v>
+        <v>154</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>38</v>
@@ -3716,7 +3770,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -3742,10 +3796,10 @@
         <v>63</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -3796,7 +3850,7 @@
         <v>38</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -3811,7 +3865,7 @@
         <v>38</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>38</v>
+        <v>158</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>38</v>
@@ -3819,7 +3873,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -3845,10 +3899,10 @@
         <v>67</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -3899,7 +3953,7 @@
         <v>38</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -3914,7 +3968,7 @@
         <v>38</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>38</v>
+        <v>164</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>38</v>
@@ -3922,7 +3976,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -3945,13 +3999,13 @@
         <v>38</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4002,7 +4056,7 @@
         <v>38</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -4017,7 +4071,7 @@
         <v>38</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>38</v>
+        <v>168</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>38</v>
@@ -4025,7 +4079,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4048,13 +4102,13 @@
         <v>38</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4105,7 +4159,7 @@
         <v>38</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -4120,7 +4174,7 @@
         <v>38</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>38</v>
+        <v>173</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>38</v>

--- a/StructureDefinition-Immunization.xlsx
+++ b/StructureDefinition-Immunization.xlsx
@@ -306,8 +306,8 @@
     <t>Immunization.subject</t>
   </si>
   <si>
-    <t>http://iso.org/fhir/ts-5384/StructureDefinition/Subject
-http://iso.org/fhir/ts-5384/StructureDefinition/Subject-uc1</t>
+    <t xml:space="preserve">http://iso.org/fhir/ts-5384/StructureDefinition/Subject
+</t>
   </si>
   <si>
     <t>Subject</t>
@@ -322,8 +322,8 @@
     <t>Immunization.product</t>
   </si>
   <si>
-    <t>http://iso.org/fhir/ts-5384/StructureDefinition/Product
-http://iso.org/fhir/ts-5384/StructureDefinition/Product-uc1</t>
+    <t xml:space="preserve">http://iso.org/fhir/ts-5384/StructureDefinition/Product
+</t>
   </si>
   <si>
     <t>Medicinal Immunizing Product</t>
@@ -549,8 +549,8 @@
     <t>Immunization.forecast</t>
   </si>
   <si>
-    <t>http://iso.org/fhir/ts-5384/StructureDefinition/Forecast
-http://iso.org/fhir/ts-5384/StructureDefinition/Forecast-uc1</t>
+    <t xml:space="preserve">http://iso.org/fhir/ts-5384/StructureDefinition/Forecast
+</t>
   </si>
   <si>
     <t>Subject's immunization forecast</t>
